--- a/planilha/twelve-factor-indicadores.xlsx
+++ b/planilha/twelve-factor-indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fontes\2025\twelfefactorapp\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F80733E-E2EC-48E4-B3A4-F5321017C5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02233E06-A9FA-4564-AC39-C871ADA39561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{86241C2E-795E-409A-8798-94226A945F59}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>Fator</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
 </sst>
 </file>
@@ -299,24 +305,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -326,7 +320,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,41 +536,32 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -564,41 +573,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,7 +660,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -671,7 +692,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -708,13 +729,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -788,22 +815,22 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,7 +865,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -881,7 +908,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -901,6 +928,33 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="747882143"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -998,7 +1052,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="351">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1009,7 +1063,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1022,7 +1076,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -1039,7 +1093,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1055,7 +1109,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1099,35 +1153,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1139,30 +1193,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1202,23 +1257,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1265,14 +1319,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1323,8 +1371,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1362,20 +1410,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1388,6 +1436,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1419,7 +1478,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1428,14 +1487,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1456,20 +1514,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1490,14 +1547,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1860,10 +1911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5B1A29-ED8C-40B8-B37B-3633CC93AFC8}">
-  <dimension ref="A1:G41"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,85 +1926,85 @@
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="53.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="27">
+        <f>COUNTIF(E2:E4,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="28">
+        <f>COUNTIF(E2:E4,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F2" s="25">
-        <f>COUNTIF(E2:E4,1)</f>
-        <v>3</v>
-      </c>
-      <c r="G2" s="24">
-        <f>COUNTIF(E2:E4,1)/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="7" t="s">
+      <c r="E3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="E4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1959,100 +2013,106 @@
       <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="21">
+        <f>COUNTIF(E5:E7,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="12">
+        <f>COUNTIF(E5:E7,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F5" s="28">
-        <f>COUNTIF(E5:E7,1)</f>
-        <v>3</v>
-      </c>
-      <c r="G5" s="23">
-        <f>COUNTIF(E5:E7,1)/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="V5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="E6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="12"/>
+      <c r="V6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="27">
+        <f>COUNTIF(E8:E10,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="28">
+        <f>COUNTIF(E8:E10,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25">
-        <f>COUNTIF(E8:E10,1)</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="24">
-        <f>COUNTIF(E8:E10,1)/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="7" t="s">
+      <c r="E9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="E10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -2061,100 +2121,100 @@
       <c r="C11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="21">
+        <f>COUNTIF(E11:E13,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="12">
+        <f>COUNTIF(E11:E13,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F11" s="28">
-        <f>COUNTIF(E11:E13,1)</f>
-        <v>3</v>
-      </c>
-      <c r="G11" s="23">
-        <f>COUNTIF(E11:E13,1)/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="E12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>5</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="27">
+        <f>COUNTIF(E14:E16,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="28">
+        <f>COUNTIF(E14:E16,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>5</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25">
-        <f>COUNTIF(E14:E16,1)</f>
-        <v>3</v>
-      </c>
-      <c r="G14" s="24">
-        <f>COUNTIF(E14:E16,1)/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="7" t="s">
+      <c r="E15" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="13">
         <v>6</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -2163,100 +2223,100 @@
       <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="21">
+        <f>COUNTIF(E17:E19,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="12">
+        <f>COUNTIF(E17:E19,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F17" s="28">
-        <f>COUNTIF(E17:E19,1)</f>
-        <v>3</v>
-      </c>
-      <c r="G17" s="23">
-        <f>COUNTIF(E17:E19,1)/3</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="23"/>
+      <c r="E18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>7</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="27">
+        <f>COUNTIF(E20:E22,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G20" s="28">
+        <f>COUNTIF(E20:E22,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>7</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="25">
-        <f>COUNTIF(E20:E22,1)</f>
-        <v>2</v>
-      </c>
-      <c r="G20" s="24">
-        <f>COUNTIF(E20:E22,1)/3</f>
-        <v>0.66666666666666663</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="7" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="7" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="13">
         <v>8</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -2265,100 +2325,100 @@
       <c r="C23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="21">
+        <f>COUNTIF(E23:E25,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G23" s="12">
+        <f>COUNTIF(E23:E25,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F23" s="28">
-        <f>COUNTIF(E23:E25,1)</f>
-        <v>2</v>
-      </c>
-      <c r="G23" s="23">
-        <f>COUNTIF(E23:E25,1)/3</f>
-        <v>0.66666666666666663</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="23"/>
+      <c r="E24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>9</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="27">
+        <f>COUNTIF(E26:E28,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G26" s="28">
+        <f>COUNTIF(E26:E28,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>9</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="25">
-        <f>COUNTIF(E26:E28,1)</f>
-        <v>2</v>
-      </c>
-      <c r="G26" s="24">
-        <f>COUNTIF(E26:E28,1)/3</f>
-        <v>0.66666666666666663</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="7" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="24"/>
+      <c r="E27" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="7" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="24"/>
+      <c r="E28" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="13">
         <v>10</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -2367,100 +2427,100 @@
       <c r="C29" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="21">
+        <f>COUNTIF(E29:E31,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G29" s="12">
+        <f>COUNTIF(E29:E31,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F29" s="28">
-        <f>COUNTIF(E29:E31,1)</f>
-        <v>2</v>
-      </c>
-      <c r="G29" s="23">
-        <f>COUNTIF(E29:E31,1)/3</f>
-        <v>0.66666666666666663</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="23"/>
+      <c r="E30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>11</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="27">
+        <f>COUNTIF(E32:E34,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="28">
+        <f>COUNTIF(E32:E34,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="23"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>11</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="25">
-        <f>COUNTIF(E32:E34,1)</f>
-        <v>3</v>
-      </c>
-      <c r="G32" s="24">
-        <f>COUNTIF(E32:E34,1)/3</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="7" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="24"/>
+      <c r="E33" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="7" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="24"/>
+      <c r="E34" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="13">
         <v>12</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -2469,78 +2529,125 @@
       <c r="C35" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="21">
+        <f>COUNTIF(E35:E37,"Sim")</f>
+        <v>3</v>
+      </c>
+      <c r="G35" s="12">
+        <f>COUNTIF(E35:E37,"Sim")/3</f>
         <v>1</v>
       </c>
-      <c r="F35" s="28">
-        <f>COUNTIF(E35:E37,1)</f>
-        <v>2</v>
-      </c>
-      <c r="G35" s="23">
-        <f>COUNTIF(E35:E37,1)/3</f>
-        <v>0.66666666666666663</v>
-      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="23"/>
+      <c r="E36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19">
+        <f>COUNTIF(E2:E37,"Sim")/36</f>
         <v>1</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="31">
-        <f>COUNTIF(E2:E37,1)/36</f>
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="G39" s="32"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="11">
+      <c r="E40" s="11"/>
+      <c r="F40" s="7">
         <f>SUM(F2:F37)</f>
-        <v>31</v>
-      </c>
-      <c r="G40" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="3"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="F8:F10"/>
@@ -2557,62 +2664,14 @@
     <mergeCell ref="G20:G22"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G32:G34"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{1609D641-4F21-45E8-B1D7-4405B3E4CA13}">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E37" xr:uid="{1609D641-4F21-45E8-B1D7-4405B3E4CA13}">
+      <formula1>"Sim,Não"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2621,7 +2680,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,197 +2691,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="str">
+      <c r="A2" s="4" t="str">
         <f>'12 factor'!B2</f>
         <v>Codebase</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="9">
         <f>'12 factor'!F2</f>
         <v>3</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <f>'12 factor'!G2</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="str">
+      <c r="A3" s="4" t="str">
         <f>'12 factor'!B5</f>
         <v>Dependencies</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="9">
         <f>'12 factor'!F5</f>
         <v>3</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <f>'12 factor'!G5</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="str">
+      <c r="A4" s="4" t="str">
         <f>'12 factor'!B8</f>
         <v>Config</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="9">
         <f>'12 factor'!F8</f>
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <f>'12 factor'!G8</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="str">
+      <c r="A5" s="4" t="str">
         <f>'12 factor'!B11</f>
         <v>Backing Services</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="9">
         <f>'12 factor'!F11</f>
         <v>3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <f>'12 factor'!G11</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="str">
+      <c r="A6" s="4" t="str">
         <f>'12 factor'!B14</f>
         <v>Build, Release, Run</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="9">
         <f>'12 factor'!F14</f>
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <f>'12 factor'!G14</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="str">
+      <c r="A7" s="4" t="str">
         <f>'12 factor'!B17</f>
         <v>Processes</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="9">
         <f>'12 factor'!F17</f>
         <v>3</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <f>'12 factor'!G17</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="4" t="str">
         <f>'12 factor'!B20</f>
         <v>Port Binding</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="9">
         <f>'12 factor'!F20</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
         <f>'12 factor'!G20</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+      <c r="A9" s="4" t="str">
         <f>'12 factor'!B23</f>
         <v>Concurrency</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="9">
         <f>'12 factor'!F23</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
         <f>'12 factor'!G23</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="4" t="str">
         <f>'12 factor'!B26</f>
         <v>Disposability</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="9">
         <f>'12 factor'!F26</f>
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
         <f>'12 factor'!G26</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+      <c r="A11" s="4" t="str">
         <f>'12 factor'!B29</f>
         <v>Dev/Prod Parity</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="9">
         <f>'12 factor'!F29</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
         <f>'12 factor'!G29</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="4" t="str">
         <f>'12 factor'!B32</f>
         <v>Logs</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="9">
         <f>'12 factor'!F32</f>
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <f>'12 factor'!G32</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+      <c r="A13" s="4" t="str">
         <f>'12 factor'!B35</f>
         <v>Admin Processes</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="9">
         <f>'12 factor'!F35</f>
-        <v>2</v>
-      </c>
-      <c r="C13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
         <f>'12 factor'!G35</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="39">
         <f>SUM(B2:B13)</f>
-        <v>31</v>
-      </c>
-      <c r="C15" s="37">
-        <f>MEDIAN(C2:C13)</f>
+        <v>36</v>
+      </c>
+      <c r="C15" s="40">
+        <f>SUM(C2:C13)/12</f>
         <v>1</v>
       </c>
     </row>
